--- a/data/trans_orig/P11_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA4A5A0A-3774-44E5-8F04-E82B1144DED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF2B468A-FB15-4811-AB9F-610209CC5613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{543D8230-B475-48C7-8EC6-1E4C566AF84E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1856FF0A-BF08-40A7-8A3F-40EF172BA483}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="518">
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>6,53%</t>
   </si>
   <si>
-    <t>4,34%</t>
+    <t>4,45%</t>
   </si>
   <si>
     <t>9,18%</t>
@@ -86,1126 +86,1132 @@
     <t>7,07%</t>
   </si>
   <si>
-    <t>4,87%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2015 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2015 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>88,69%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
   </si>
   <si>
     <t>23,71%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>81,28%</t>
   </si>
   <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
   </si>
   <si>
     <t>76,29%</t>
   </si>
   <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
   </si>
   <si>
     <t>78,77%</t>
   </si>
   <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
   </si>
   <si>
     <t>41,45%</t>
   </si>
   <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
+    <t>36,82%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
   </si>
   <si>
     <t>58,55%</t>
   </si>
   <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
+    <t>63,18%</t>
   </si>
   <si>
     <t>66,8%</t>
   </si>
   <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
   </si>
   <si>
     <t>41,73%</t>
   </si>
   <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
   </si>
   <si>
     <t>61,77%</t>
   </si>
   <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
   </si>
   <si>
     <t>53,09%</t>
   </si>
   <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
   </si>
   <si>
     <t>58,27%</t>
   </si>
   <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
   </si>
   <si>
     <t>38,23%</t>
   </si>
   <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
   </si>
   <si>
     <t>46,91%</t>
   </si>
   <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
   </si>
   <si>
     <t>18,56%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
+    <t>27,29%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
   </si>
   <si>
     <t>81,44%</t>
   </si>
   <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
+    <t>72,71%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
@@ -1214,118 +1220,118 @@
     <t>6,05%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
   </si>
   <si>
     <t>10,88%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>89,12%</t>
   </si>
   <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
   </si>
   <si>
     <t>91,61%</t>
   </si>
   <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>15,18%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
   </si>
   <si>
     <t>85,05%</t>
   </si>
   <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
   </si>
   <si>
     <t>84,63%</t>
   </si>
   <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
   </si>
   <si>
     <t>84,82%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>18,43%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
   </si>
   <si>
     <t>22,54%</t>
@@ -1334,31 +1340,31 @@
     <t>19,75%</t>
   </si>
   <si>
-    <t>25,68%</t>
+    <t>25,43%</t>
   </si>
   <si>
     <t>20,53%</t>
   </si>
   <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
   </si>
   <si>
     <t>81,57%</t>
   </si>
   <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
   </si>
   <si>
     <t>77,46%</t>
   </si>
   <si>
-    <t>74,32%</t>
+    <t>74,57%</t>
   </si>
   <si>
     <t>80,25%</t>
@@ -1367,199 +1373,214 @@
     <t>79,47%</t>
   </si>
   <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
   </si>
   <si>
     <t>24,67%</t>
   </si>
   <si>
-    <t>28,65%</t>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
   </si>
   <si>
     <t>34,69%</t>
   </si>
   <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
   </si>
   <si>
     <t>29,76%</t>
   </si>
   <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>75,33%</t>
   </si>
   <si>
-    <t>71,35%</t>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
   </si>
   <si>
     <t>65,31%</t>
   </si>
   <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
   </si>
   <si>
     <t>70,24%</t>
   </si>
   <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
   </si>
   <si>
     <t>38,92%</t>
   </si>
   <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
   </si>
   <si>
     <t>45,71%</t>
   </si>
   <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
   </si>
   <si>
     <t>42,31%</t>
   </si>
   <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
   </si>
   <si>
     <t>61,08%</t>
   </si>
   <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
   </si>
   <si>
     <t>54,29%</t>
   </si>
   <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
   </si>
   <si>
     <t>57,69%</t>
   </si>
   <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
   </si>
   <si>
     <t>42,48%</t>
   </si>
   <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
     <t>39,1%</t>
   </si>
   <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
   </si>
   <si>
     <t>60,9%</t>
   </si>
   <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
+    <t>54,44%</t>
   </si>
   <si>
     <t>63,26%</t>
@@ -1568,7 +1589,10 @@
     <t>66,82%</t>
   </si>
   <si>
-    <t>62,72%</t>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +2004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB21758-4751-4F76-98C8-964A0CF55B80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DA6062-F6EF-4D30-A6B4-EFE8E5157758}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3061,7 +3085,7 @@
         <v>1559</v>
       </c>
       <c r="N22" s="7">
-        <v>1582389</v>
+        <v>1582390</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -3163,7 +3187,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3199,7 +3223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B8E560-8BED-4F93-8420-891100CA04C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F59142-15DA-4079-AF7C-9E9FD609E939}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3508,13 +3532,13 @@
         <v>112118</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3553,13 @@
         <v>624205</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>519</v>
@@ -3544,13 +3568,13 @@
         <v>554722</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>1129</v>
@@ -3559,13 +3583,13 @@
         <v>1178927</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3657,13 @@
         <v>84133</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
@@ -3648,13 +3672,13 @@
         <v>134069</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>208</v>
@@ -3663,13 +3687,13 @@
         <v>218202</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3708,13 @@
         <v>594788</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7">
         <v>536</v>
@@ -3711,7 +3735,7 @@
         <v>1104</v>
       </c>
       <c r="N11" s="7">
-        <v>1168676</v>
+        <v>1168675</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>195</v>
@@ -3762,7 +3786,7 @@
         <v>1312</v>
       </c>
       <c r="N12" s="7">
-        <v>1386878</v>
+        <v>1386877</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4134,7 +4158,7 @@
         <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4173,13 @@
         <v>281078</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>211</v>
@@ -4164,28 +4188,28 @@
         <v>230196</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>467</v>
       </c>
       <c r="N20" s="7">
-        <v>511274</v>
+        <v>511273</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,7 +4251,7 @@
         <v>1195</v>
       </c>
       <c r="N21" s="7">
-        <v>1299493</v>
+        <v>1299492</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4253,13 +4277,13 @@
         <v>643427</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7">
         <v>1032</v>
@@ -4268,13 +4292,13 @@
         <v>1113667</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>1619</v>
@@ -4283,13 +4307,13 @@
         <v>1757093</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4325,13 @@
         <v>2606</v>
       </c>
       <c r="D23" s="7">
-        <v>2766261</v>
+        <v>2766260</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>261</v>
@@ -4331,7 +4355,7 @@
         <v>4868</v>
       </c>
       <c r="N23" s="7">
-        <v>5207038</v>
+        <v>5207037</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>265</v>
@@ -4352,7 +4376,7 @@
         <v>3193</v>
       </c>
       <c r="D24" s="7">
-        <v>3409688</v>
+        <v>3409687</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4382,7 +4406,7 @@
         <v>6487</v>
       </c>
       <c r="N24" s="7">
-        <v>6964131</v>
+        <v>6964130</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4418,7 +4442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A6D351-01A5-4FE8-B6AD-1A72792DA4D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF2B5EC-C5B2-4C6C-9392-5C42A4C74904}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4557,13 +4581,13 @@
         <v>24457</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -4572,13 +4596,13 @@
         <v>42202</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4617,13 @@
         <v>396960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>379</v>
@@ -4608,13 +4632,13 @@
         <v>371298</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>752</v>
@@ -4623,13 +4647,13 @@
         <v>768258</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4721,13 @@
         <v>48651</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -4712,13 +4736,13 @@
         <v>60067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -4727,13 +4751,13 @@
         <v>108718</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4772,13 @@
         <v>535823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -4763,13 +4787,13 @@
         <v>500675</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>1034</v>
@@ -4778,13 +4802,13 @@
         <v>1036498</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4876,13 @@
         <v>75872</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>95</v>
@@ -4867,13 +4891,13 @@
         <v>95687</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>166</v>
@@ -4882,13 +4906,13 @@
         <v>171559</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4927,13 @@
         <v>588349</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>562</v>
@@ -4918,13 +4942,13 @@
         <v>558280</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>1124</v>
@@ -4933,13 +4957,13 @@
         <v>1146628</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5031,13 @@
         <v>120233</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -5022,13 +5046,13 @@
         <v>153215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>250</v>
@@ -5037,13 +5061,13 @@
         <v>273448</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5082,13 @@
         <v>521891</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>456</v>
@@ -5073,13 +5097,13 @@
         <v>492952</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>927</v>
@@ -5088,13 +5112,13 @@
         <v>1014844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5186,13 @@
         <v>116831</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>180</v>
@@ -5177,13 +5201,13 @@
         <v>204539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>283</v>
@@ -5192,13 +5216,13 @@
         <v>321370</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5237,13 @@
         <v>357789</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H17" s="7">
         <v>250</v>
@@ -5228,13 +5252,13 @@
         <v>288930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>568</v>
@@ -5243,13 +5267,13 @@
         <v>646718</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5341,13 @@
         <v>245995</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>400</v>
@@ -5332,13 +5356,13 @@
         <v>476809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>665</v>
@@ -5347,13 +5371,13 @@
         <v>722803</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5392,13 @@
         <v>343491</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -5383,13 +5407,13 @@
         <v>295080</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>610</v>
@@ -5398,13 +5422,13 @@
         <v>638572</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5496,13 @@
         <v>625326</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>903</v>
@@ -5487,13 +5511,13 @@
         <v>1014774</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1509</v>
@@ -5502,13 +5526,13 @@
         <v>1640099</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5547,13 @@
         <v>2744304</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H23" s="7">
         <v>2413</v>
@@ -5538,13 +5562,13 @@
         <v>2507215</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>5015</v>
@@ -5553,13 +5577,13 @@
         <v>5251519</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,7 +5661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58816AAC-3464-44EC-9E1F-A267F02EC9D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA36154-74BC-4A6F-A1C4-5E3CAAF22BC7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5654,7 +5678,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5761,13 +5785,13 @@
         <v>22846</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -5776,13 +5800,13 @@
         <v>38607</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -5791,13 +5815,13 @@
         <v>61453</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5836,13 @@
         <v>354833</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
@@ -5827,13 +5851,13 @@
         <v>316350</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M5" s="7">
         <v>343</v>
@@ -5842,13 +5866,13 @@
         <v>671183</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5940,13 @@
         <v>64065</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
@@ -5931,13 +5955,13 @@
         <v>76626</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
@@ -5946,13 +5970,13 @@
         <v>140691</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5991,13 @@
         <v>364331</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H8" s="7">
         <v>389</v>
@@ -5982,13 +6006,13 @@
         <v>421951</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>641</v>
@@ -5997,13 +6021,13 @@
         <v>786282</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6095,13 @@
         <v>102694</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
@@ -6086,13 +6110,13 @@
         <v>131522</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M10" s="7">
         <v>308</v>
@@ -6101,13 +6125,13 @@
         <v>234215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6146,13 @@
         <v>454558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
@@ -6137,13 +6161,13 @@
         <v>451954</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M11" s="7">
         <v>1084</v>
@@ -6152,13 +6176,13 @@
         <v>906512</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6250,13 @@
         <v>178639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H13" s="7">
         <v>408</v>
@@ -6241,13 +6265,13 @@
         <v>259244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M13" s="7">
         <v>585</v>
@@ -6256,13 +6280,13 @@
         <v>437883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6301,13 @@
         <v>545351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>457</v>
       </c>
       <c r="H14" s="7">
         <v>733</v>
@@ -6292,28 +6316,28 @@
         <v>488017</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M14" s="7">
         <v>1221</v>
       </c>
       <c r="N14" s="7">
-        <v>1033369</v>
+        <v>1033368</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,7 +6379,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6381,13 +6405,13 @@
         <v>232547</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H16" s="7">
         <v>465</v>
@@ -6396,13 +6420,13 @@
         <v>272923</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M16" s="7">
         <v>718</v>
@@ -6411,13 +6435,13 @@
         <v>505470</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6456,13 @@
         <v>365024</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="H17" s="7">
         <v>537</v>
@@ -6447,13 +6471,13 @@
         <v>324140</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>945</v>
@@ -6462,13 +6486,13 @@
         <v>689165</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6560,13 @@
         <v>296078</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H19" s="7">
         <v>1130</v>
@@ -6551,13 +6575,13 @@
         <v>708233</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="M19" s="7">
         <v>1580</v>
@@ -6566,13 +6590,13 @@
         <v>1004311</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6611,13 @@
         <v>400916</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H20" s="7">
         <v>571</v>
@@ -6602,13 +6626,13 @@
         <v>313929</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M20" s="7">
         <v>1148</v>
@@ -6617,13 +6641,13 @@
         <v>714846</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,13 +6715,13 @@
         <v>896869</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H22" s="7">
         <v>2298</v>
@@ -6706,13 +6730,13 @@
         <v>1487154</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="M22" s="7">
         <v>3348</v>
@@ -6721,13 +6745,13 @@
         <v>2384023</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>447</v>
+        <v>507</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,43 +6766,43 @@
         <v>2485013</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="H23" s="7">
         <v>3059</v>
       </c>
       <c r="I23" s="7">
-        <v>2316342</v>
+        <v>2316343</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="M23" s="7">
         <v>5382</v>
       </c>
       <c r="N23" s="7">
-        <v>4801357</v>
+        <v>4801356</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,7 +6829,7 @@
         <v>5357</v>
       </c>
       <c r="I24" s="7">
-        <v>3803496</v>
+        <v>3803497</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -6820,7 +6844,7 @@
         <v>8730</v>
       </c>
       <c r="N24" s="7">
-        <v>7185380</v>
+        <v>7185379</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P11_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF2B468A-FB15-4811-AB9F-610209CC5613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF758DC2-6B45-4ACD-9FB9-024D5372858A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1856FF0A-BF08-40A7-8A3F-40EF172BA483}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA05A569-24F4-450A-8B2D-D6922894DC23}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="522">
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>6,53%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>93,47%</t>
   </si>
   <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>92,93%</t>
   </si>
   <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,19 +140,19 @@
     <t>5,82%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>9,64%</t>
@@ -161,31 +161,31 @@
     <t>8,06%</t>
   </si>
   <si>
-    <t>11,46%</t>
+    <t>11,42%</t>
   </si>
   <si>
     <t>94,18%</t>
   </si>
   <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
   </si>
   <si>
     <t>85,87%</t>
   </si>
   <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>88,54%</t>
+    <t>88,58%</t>
   </si>
   <si>
     <t>91,94%</t>
@@ -197,55 +197,55 @@
     <t>10,64%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
   </si>
   <si>
     <t>20,48%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
   </si>
   <si>
     <t>15,75%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
   </si>
   <si>
     <t>89,36%</t>
   </si>
   <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>79,52%</t>
   </si>
   <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>84,25%</t>
   </si>
   <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,112 +254,112 @@
     <t>18,34%</t>
   </si>
   <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
   </si>
   <si>
     <t>29,92%</t>
   </si>
   <si>
-    <t>25,84%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
     <t>65,3%</t>
   </si>
   <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,448 +368,457 @@
     <t>47,43%</t>
   </si>
   <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
   </si>
   <si>
     <t>61,23%</t>
   </si>
   <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
   </si>
   <si>
     <t>55,35%</t>
   </si>
   <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
   </si>
   <si>
     <t>52,57%</t>
   </si>
   <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
   </si>
   <si>
     <t>38,77%</t>
   </si>
   <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
   </si>
   <si>
     <t>44,65%</t>
   </si>
   <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
   </si>
   <si>
     <t>18,18%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>29,2%</t>
   </si>
   <si>
-    <t>27,51%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
   </si>
   <si>
     <t>30,73%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
   </si>
   <si>
     <t>69,27%</t>
   </si>
   <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
+    <t>76,79%</t>
   </si>
   <si>
     <t>79,44%</t>
   </si>
   <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
   </si>
   <si>
     <t>26,68%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
   </si>
   <si>
     <t>46,26%</t>
   </si>
   <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
   </si>
   <si>
     <t>36,7%</t>
   </si>
   <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
   </si>
   <si>
     <t>73,32%</t>
   </si>
   <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
   </si>
   <si>
     <t>53,74%</t>
   </si>
   <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
   </si>
   <si>
     <t>63,3%</t>
   </si>
   <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
   </si>
   <si>
     <t>49,49%</t>
   </si>
   <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
   </si>
   <si>
     <t>69,02%</t>
   </si>
   <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
   </si>
   <si>
     <t>60,66%</t>
   </si>
   <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
   </si>
   <si>
     <t>50,51%</t>
   </si>
   <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
   </si>
   <si>
     <t>30,98%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
   </si>
   <si>
     <t>39,34%</t>
   </si>
   <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>17,47%</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
   </si>
   <si>
     <t>25,23%</t>
@@ -818,400 +827,409 @@
     <t>24,16%</t>
   </si>
   <si>
-    <t>26,24%</t>
+    <t>26,28%</t>
   </si>
   <si>
     <t>81,13%</t>
   </si>
   <si>
-    <t>82,53%</t>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
   </si>
   <si>
     <t>68,67%</t>
   </si>
   <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
   </si>
   <si>
     <t>74,77%</t>
   </si>
   <si>
-    <t>73,76%</t>
+    <t>73,72%</t>
   </si>
   <si>
     <t>75,84%</t>
   </si>
   <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2015 (Tasa respuesta: 99,31%)</t>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2016 (Tasa respuesta: 99,31%)</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>93,82%</t>
   </si>
   <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>91,68%</t>
   </si>
   <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
   </si>
   <si>
     <t>89,29%</t>
   </si>
   <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
   <si>
     <t>23,71%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
   </si>
   <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>81,28%</t>
   </si>
   <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>76,29%</t>
   </si>
   <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>78,77%</t>
   </si>
   <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
   </si>
   <si>
     <t>41,45%</t>
   </si>
   <si>
-    <t>36,82%</t>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>58,55%</t>
   </si>
   <si>
-    <t>63,18%</t>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
   </si>
   <si>
     <t>66,8%</t>
   </si>
   <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
   </si>
   <si>
     <t>41,73%</t>
   </si>
   <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>61,77%</t>
   </si>
   <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
   </si>
   <si>
     <t>53,09%</t>
   </si>
   <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
   </si>
   <si>
     <t>58,27%</t>
   </si>
   <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
   </si>
   <si>
     <t>38,23%</t>
   </si>
   <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
   </si>
   <si>
     <t>46,91%</t>
   </si>
   <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
   </si>
   <si>
     <t>18,56%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>27,29%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>81,44%</t>
   </si>
   <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>72,71%</t>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
   </si>
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
@@ -1280,9 +1298,6 @@
     <t>19,66%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
     <t>12,22%</t>
   </si>
   <si>
@@ -1305,9 +1320,6 @@
   </si>
   <si>
     <t>88,77%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
   </si>
   <si>
     <t>80,44%</t>
@@ -2004,7 +2016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DA6062-F6EF-4D30-A6B4-EFE8E5157758}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1685A7B5-2DB6-4B4B-8D56-45B65041BC2C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3106,7 +3118,7 @@
         <v>2614</v>
       </c>
       <c r="D23" s="7">
-        <v>2680860</v>
+        <v>2680859</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3157,7 +3169,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3223,7 +3235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F59142-15DA-4079-AF7C-9E9FD609E939}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E36BB3-F392-4A2C-96E6-956A022FF00B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3425,7 +3437,7 @@
         <v>800</v>
       </c>
       <c r="N5" s="7">
-        <v>817079</v>
+        <v>817080</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>161</v>
@@ -3476,7 +3488,7 @@
         <v>864</v>
       </c>
       <c r="N6" s="7">
-        <v>881569</v>
+        <v>881570</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3660,10 +3672,10 @@
         <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
@@ -3672,13 +3684,13 @@
         <v>134069</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>208</v>
@@ -3687,13 +3699,13 @@
         <v>218202</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3720,13 @@
         <v>594788</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>536</v>
@@ -3723,28 +3735,28 @@
         <v>573887</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1104</v>
       </c>
       <c r="N11" s="7">
-        <v>1168675</v>
+        <v>1168676</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,7 +3798,7 @@
         <v>1312</v>
       </c>
       <c r="N12" s="7">
-        <v>1386877</v>
+        <v>1386878</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3812,13 +3824,13 @@
         <v>86319</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>147</v>
@@ -3827,13 +3839,13 @@
         <v>166553</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>224</v>
@@ -3842,13 +3854,13 @@
         <v>252872</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3875,13 @@
         <v>527364</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>392</v>
@@ -3878,13 +3890,13 @@
         <v>449646</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>862</v>
@@ -3893,13 +3905,13 @@
         <v>977010</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3979,13 @@
         <v>114030</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>185</v>
@@ -3982,13 +3994,13 @@
         <v>207162</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>291</v>
@@ -3997,13 +4009,13 @@
         <v>321192</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4030,13 @@
         <v>313435</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>221</v>
@@ -4033,13 +4045,13 @@
         <v>240638</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>506</v>
@@ -4048,13 +4060,13 @@
         <v>554073</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4134,13 @@
         <v>275440</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>483</v>
@@ -4137,13 +4149,13 @@
         <v>512779</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>728</v>
@@ -4152,13 +4164,13 @@
         <v>788219</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4185,13 @@
         <v>281078</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>211</v>
@@ -4188,28 +4200,28 @@
         <v>230196</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>467</v>
       </c>
       <c r="N20" s="7">
-        <v>511273</v>
+        <v>511274</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,7 +4263,7 @@
         <v>1195</v>
       </c>
       <c r="N21" s="7">
-        <v>1299492</v>
+        <v>1299493</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4277,13 +4289,13 @@
         <v>643427</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>54</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>1032</v>
@@ -4292,13 +4304,13 @@
         <v>1113667</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>1619</v>
@@ -4307,13 +4319,13 @@
         <v>1757093</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,16 +4337,16 @@
         <v>2606</v>
       </c>
       <c r="D23" s="7">
-        <v>2766260</v>
+        <v>2766261</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>63</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>2262</v>
@@ -4343,28 +4355,28 @@
         <v>2440777</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>4868</v>
       </c>
       <c r="N23" s="7">
-        <v>5207037</v>
+        <v>5207038</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,7 +4388,7 @@
         <v>3193</v>
       </c>
       <c r="D24" s="7">
-        <v>3409687</v>
+        <v>3409688</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4406,7 +4418,7 @@
         <v>6487</v>
       </c>
       <c r="N24" s="7">
-        <v>6964130</v>
+        <v>6964131</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4442,7 +4454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF2B5EC-C5B2-4C6C-9392-5C42A4C74904}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB20D405-ABE9-48CA-A78B-9D7B22BA0868}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4459,7 +4471,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4566,13 +4578,13 @@
         <v>17745</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -4581,13 +4593,13 @@
         <v>24457</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -4596,13 +4608,13 @@
         <v>42202</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4629,13 @@
         <v>396960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>379</v>
@@ -4632,13 +4644,13 @@
         <v>371298</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>752</v>
@@ -4647,13 +4659,13 @@
         <v>768258</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4733,13 @@
         <v>48651</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -4736,13 +4748,13 @@
         <v>60067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -4751,13 +4763,13 @@
         <v>108718</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4784,13 @@
         <v>535823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -4787,13 +4799,13 @@
         <v>500675</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>1034</v>
@@ -4802,13 +4814,13 @@
         <v>1036498</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4888,13 @@
         <v>75872</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
         <v>95</v>
@@ -4891,13 +4903,13 @@
         <v>95687</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>166</v>
@@ -4906,13 +4918,13 @@
         <v>171559</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,16 +4936,16 @@
         <v>562</v>
       </c>
       <c r="D11" s="7">
-        <v>588349</v>
+        <v>588348</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H11" s="7">
         <v>562</v>
@@ -4942,13 +4954,13 @@
         <v>558280</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
         <v>1124</v>
@@ -4957,13 +4969,13 @@
         <v>1146628</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,7 +4987,7 @@
         <v>633</v>
       </c>
       <c r="D12" s="7">
-        <v>664221</v>
+        <v>664220</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5031,13 +5043,13 @@
         <v>120233</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -5046,13 +5058,13 @@
         <v>153215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>250</v>
@@ -5061,13 +5073,13 @@
         <v>273448</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5094,13 @@
         <v>521891</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H14" s="7">
         <v>456</v>
@@ -5097,13 +5109,13 @@
         <v>492952</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M14" s="7">
         <v>927</v>
@@ -5112,13 +5124,13 @@
         <v>1014844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5198,13 @@
         <v>116831</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H16" s="7">
         <v>180</v>
@@ -5201,13 +5213,13 @@
         <v>204539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>283</v>
@@ -5216,13 +5228,13 @@
         <v>321370</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,13 +5249,13 @@
         <v>357789</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
         <v>250</v>
@@ -5252,13 +5264,13 @@
         <v>288930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>356</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M17" s="7">
         <v>568</v>
@@ -5267,13 +5279,13 @@
         <v>646718</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,13 +5353,13 @@
         <v>245995</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H19" s="7">
         <v>400</v>
@@ -5356,13 +5368,13 @@
         <v>476809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M19" s="7">
         <v>665</v>
@@ -5371,13 +5383,13 @@
         <v>722803</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,13 +5404,13 @@
         <v>343491</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -5407,13 +5419,13 @@
         <v>295080</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>610</v>
@@ -5422,13 +5434,13 @@
         <v>638572</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5508,13 @@
         <v>625326</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H22" s="7">
         <v>903</v>
@@ -5511,13 +5523,13 @@
         <v>1014774</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
         <v>1509</v>
@@ -5526,13 +5538,13 @@
         <v>1640099</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5559,13 @@
         <v>2744304</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="H23" s="7">
         <v>2413</v>
@@ -5562,13 +5574,13 @@
         <v>2507215</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>392</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M23" s="7">
         <v>5015</v>
@@ -5577,13 +5589,13 @@
         <v>5251519</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,7 +5673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA36154-74BC-4A6F-A1C4-5E3CAAF22BC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8EE984-68A7-4849-9DC9-9C08E7B737BE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5678,7 +5690,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5785,13 +5797,13 @@
         <v>22846</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -5800,13 +5812,13 @@
         <v>38607</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -5815,13 +5827,13 @@
         <v>61453</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5848,13 @@
         <v>354833</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
@@ -5851,13 +5863,13 @@
         <v>316350</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="M5" s="7">
         <v>343</v>
@@ -5866,13 +5878,13 @@
         <v>671183</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5952,13 @@
         <v>64065</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
@@ -5955,13 +5967,13 @@
         <v>76626</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>413</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
@@ -5970,13 +5982,13 @@
         <v>140691</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +6003,13 @@
         <v>364331</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="H8" s="7">
         <v>389</v>
@@ -6006,13 +6018,13 @@
         <v>421951</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>422</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M8" s="7">
         <v>641</v>
@@ -6021,13 +6033,13 @@
         <v>786282</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6107,13 @@
         <v>102694</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
@@ -6110,13 +6122,13 @@
         <v>131522</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M10" s="7">
         <v>308</v>
@@ -6125,13 +6137,13 @@
         <v>234215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6158,13 @@
         <v>454558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
@@ -6161,13 +6173,13 @@
         <v>451954</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M11" s="7">
         <v>1084</v>
@@ -6176,13 +6188,13 @@
         <v>906512</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6262,13 @@
         <v>178639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H13" s="7">
         <v>408</v>
@@ -6265,13 +6277,13 @@
         <v>259244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M13" s="7">
         <v>585</v>
@@ -6280,13 +6292,13 @@
         <v>437883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6313,13 @@
         <v>545351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H14" s="7">
         <v>733</v>
@@ -6316,13 +6328,13 @@
         <v>488017</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M14" s="7">
         <v>1221</v>
@@ -6331,13 +6343,13 @@
         <v>1033368</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,13 +6417,13 @@
         <v>232547</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H16" s="7">
         <v>465</v>
@@ -6420,13 +6432,13 @@
         <v>272923</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M16" s="7">
         <v>718</v>
@@ -6435,13 +6447,13 @@
         <v>505470</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6468,13 @@
         <v>365024</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H17" s="7">
         <v>537</v>
@@ -6471,13 +6483,13 @@
         <v>324140</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M17" s="7">
         <v>945</v>
@@ -6486,13 +6498,13 @@
         <v>689165</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,13 +6572,13 @@
         <v>296078</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H19" s="7">
         <v>1130</v>
@@ -6575,13 +6587,13 @@
         <v>708233</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="M19" s="7">
         <v>1580</v>
@@ -6590,13 +6602,13 @@
         <v>1004311</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,13 +6623,13 @@
         <v>400916</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="H20" s="7">
         <v>571</v>
@@ -6626,13 +6638,13 @@
         <v>313929</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="M20" s="7">
         <v>1148</v>
@@ -6641,13 +6653,13 @@
         <v>714846</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6727,13 @@
         <v>896869</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H22" s="7">
         <v>2298</v>
@@ -6730,13 +6742,13 @@
         <v>1487154</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M22" s="7">
         <v>3348</v>
@@ -6745,13 +6757,13 @@
         <v>2384023</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6778,13 @@
         <v>2485013</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H23" s="7">
         <v>3059</v>
@@ -6781,13 +6793,13 @@
         <v>2316343</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M23" s="7">
         <v>5382</v>
@@ -6796,13 +6808,13 @@
         <v>4801356</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P11_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF758DC2-6B45-4ACD-9FB9-024D5372858A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0124AECD-FD3D-4D4A-B212-B9E49981AFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA05A569-24F4-450A-8B2D-D6922894DC23}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF3C70B8-F4BE-4694-A6C6-C28A980A4627}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>6,53%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>93,47%</t>
   </si>
   <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>92,93%</t>
   </si>
   <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1210 +140,1192 @@
     <t>5,82%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>8,06%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>11,42%</t>
   </si>
   <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>88,58%</t>
   </si>
   <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
   <si>
     <t>84,63%</t>
   </si>
   <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2016 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>84,82%</t>
   </si>
   <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>18,43%</t>
   </si>
   <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
   </si>
   <si>
     <t>22,54%</t>
@@ -1352,31 +1334,31 @@
     <t>19,75%</t>
   </si>
   <si>
-    <t>25,43%</t>
+    <t>25,68%</t>
   </si>
   <si>
     <t>20,53%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
   </si>
   <si>
     <t>81,57%</t>
   </si>
   <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>77,46%</t>
   </si>
   <si>
-    <t>74,57%</t>
+    <t>74,32%</t>
   </si>
   <si>
     <t>80,25%</t>
@@ -1385,214 +1367,199 @@
     <t>79,47%</t>
   </si>
   <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
   </si>
   <si>
     <t>24,67%</t>
   </si>
   <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
+    <t>28,65%</t>
   </si>
   <si>
     <t>34,69%</t>
   </si>
   <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
   </si>
   <si>
     <t>29,76%</t>
   </si>
   <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
   </si>
   <si>
     <t>75,33%</t>
   </si>
   <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
+    <t>71,35%</t>
   </si>
   <si>
     <t>65,31%</t>
   </si>
   <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
   </si>
   <si>
     <t>70,24%</t>
   </si>
   <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
   </si>
   <si>
     <t>38,92%</t>
   </si>
   <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
   </si>
   <si>
     <t>45,71%</t>
   </si>
   <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
   </si>
   <si>
     <t>42,31%</t>
   </si>
   <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
   </si>
   <si>
     <t>61,08%</t>
   </si>
   <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
   </si>
   <si>
     <t>54,29%</t>
   </si>
   <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
   </si>
   <si>
     <t>57,69%</t>
   </si>
   <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
   </si>
   <si>
     <t>42,48%</t>
   </si>
   <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
   </si>
   <si>
     <t>69,29%</t>
   </si>
   <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
   </si>
   <si>
     <t>58,42%</t>
   </si>
   <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
   </si>
   <si>
     <t>57,52%</t>
   </si>
   <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
   </si>
   <si>
     <t>30,71%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
   </si>
   <si>
     <t>41,58%</t>
   </si>
   <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
   </si>
   <si>
     <t>36,74%</t>
   </si>
   <si>
-    <t>45,56%</t>
+    <t>44,88%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
+    <t>37,28%</t>
   </si>
   <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
   </si>
   <si>
     <t>63,26%</t>
@@ -1601,10 +1568,7 @@
     <t>66,82%</t>
   </si>
   <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>62,72%</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1685A7B5-2DB6-4B4B-8D56-45B65041BC2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4B19C5-C311-426D-91C7-A6C763D9268C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3097,7 +3061,7 @@
         <v>1559</v>
       </c>
       <c r="N22" s="7">
-        <v>1582390</v>
+        <v>1582389</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -3118,7 +3082,7 @@
         <v>2614</v>
       </c>
       <c r="D23" s="7">
-        <v>2680859</v>
+        <v>2680860</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3169,7 +3133,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3199,7 +3163,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3235,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E36BB3-F392-4A2C-96E6-956A022FF00B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184F5360-2450-4ACA-8A0E-3A9BDD1E568A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3437,7 +3401,7 @@
         <v>800</v>
       </c>
       <c r="N5" s="7">
-        <v>817080</v>
+        <v>817079</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>161</v>
@@ -3488,7 +3452,7 @@
         <v>864</v>
       </c>
       <c r="N6" s="7">
-        <v>881570</v>
+        <v>881569</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3544,13 +3508,13 @@
         <v>112118</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3529,13 @@
         <v>624205</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>519</v>
@@ -3580,13 +3544,13 @@
         <v>554722</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>1129</v>
@@ -3595,13 +3559,13 @@
         <v>1178927</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3633,13 @@
         <v>84133</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
@@ -3684,13 +3648,13 @@
         <v>134069</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>208</v>
@@ -3699,13 +3663,13 @@
         <v>218202</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3684,13 @@
         <v>594788</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>536</v>
@@ -3735,13 +3699,13 @@
         <v>573887</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1104</v>
@@ -3750,13 +3714,13 @@
         <v>1168676</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3788,13 @@
         <v>86319</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>147</v>
@@ -3839,13 +3803,13 @@
         <v>166553</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>224</v>
@@ -3854,13 +3818,13 @@
         <v>252872</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3839,13 @@
         <v>527364</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>392</v>
@@ -3890,13 +3854,13 @@
         <v>449646</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>862</v>
@@ -3905,13 +3869,13 @@
         <v>977010</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3943,13 @@
         <v>114030</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>185</v>
@@ -3994,13 +3958,13 @@
         <v>207162</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>291</v>
@@ -4009,13 +3973,13 @@
         <v>321192</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +3994,13 @@
         <v>313435</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>221</v>
@@ -4045,13 +4009,13 @@
         <v>240638</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>506</v>
@@ -4060,13 +4024,13 @@
         <v>554073</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4098,13 @@
         <v>275440</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>483</v>
@@ -4149,13 +4113,13 @@
         <v>512779</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>728</v>
@@ -4164,13 +4128,13 @@
         <v>788219</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4149,13 @@
         <v>281078</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>211</v>
@@ -4200,13 +4164,13 @@
         <v>230196</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>467</v>
@@ -4215,13 +4179,13 @@
         <v>511274</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4253,13 @@
         <v>643427</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>1032</v>
@@ -4304,13 +4268,13 @@
         <v>1113667</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>1619</v>
@@ -4319,13 +4283,13 @@
         <v>1757093</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4304,13 @@
         <v>2766261</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>2262</v>
@@ -4355,13 +4319,13 @@
         <v>2440777</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>4868</v>
@@ -4370,13 +4334,13 @@
         <v>5207038</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,7 +4418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB20D405-ABE9-48CA-A78B-9D7B22BA0868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594A47D8-3EC9-4FAE-92E3-B631A8E0D799}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4471,7 +4435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4578,13 +4542,13 @@
         <v>17745</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -4593,13 +4557,13 @@
         <v>24457</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -4608,13 +4572,13 @@
         <v>42202</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4593,13 @@
         <v>396960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>379</v>
@@ -4644,13 +4608,13 @@
         <v>371298</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>752</v>
@@ -4659,13 +4623,13 @@
         <v>768258</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4697,13 @@
         <v>48651</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -4748,13 +4712,13 @@
         <v>60067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -4763,13 +4727,13 @@
         <v>108718</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>298</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4748,13 @@
         <v>535823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -4799,13 +4763,13 @@
         <v>500675</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>1034</v>
@@ -4814,13 +4778,13 @@
         <v>1036498</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4852,13 @@
         <v>75872</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>95</v>
@@ -4903,13 +4867,13 @@
         <v>95687</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>166</v>
@@ -4918,13 +4882,13 @@
         <v>171559</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,16 +4900,16 @@
         <v>562</v>
       </c>
       <c r="D11" s="7">
-        <v>588348</v>
+        <v>588349</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>562</v>
@@ -4954,13 +4918,13 @@
         <v>558280</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>1124</v>
@@ -4969,13 +4933,13 @@
         <v>1146628</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,7 +4951,7 @@
         <v>633</v>
       </c>
       <c r="D12" s="7">
-        <v>664220</v>
+        <v>664221</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5043,13 +5007,13 @@
         <v>120233</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -5058,13 +5022,13 @@
         <v>153215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>250</v>
@@ -5073,13 +5037,13 @@
         <v>273448</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5058,13 @@
         <v>521891</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>456</v>
@@ -5109,13 +5073,13 @@
         <v>492952</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>927</v>
@@ -5124,13 +5088,13 @@
         <v>1014844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5162,13 @@
         <v>116831</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>180</v>
@@ -5213,13 +5177,13 @@
         <v>204539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>283</v>
@@ -5228,13 +5192,13 @@
         <v>321370</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,13 +5213,13 @@
         <v>357789</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>250</v>
@@ -5264,13 +5228,13 @@
         <v>288930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M17" s="7">
         <v>568</v>
@@ -5279,13 +5243,13 @@
         <v>646718</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5317,13 @@
         <v>245995</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>400</v>
@@ -5368,13 +5332,13 @@
         <v>476809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>665</v>
@@ -5383,13 +5347,13 @@
         <v>722803</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5368,13 @@
         <v>343491</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -5419,13 +5383,13 @@
         <v>295080</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>610</v>
@@ -5434,13 +5398,13 @@
         <v>638572</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5472,13 @@
         <v>625326</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>903</v>
@@ -5523,13 +5487,13 @@
         <v>1014774</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>1509</v>
@@ -5538,13 +5502,13 @@
         <v>1640099</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5523,13 @@
         <v>2744304</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="H23" s="7">
         <v>2413</v>
@@ -5574,13 +5538,13 @@
         <v>2507215</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>5015</v>
@@ -5589,13 +5553,13 @@
         <v>5251519</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8EE984-68A7-4849-9DC9-9C08E7B737BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028D6AF7-4F48-4637-AFE6-260404A6031C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5690,7 +5654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5797,13 +5761,13 @@
         <v>22846</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -5812,13 +5776,13 @@
         <v>38607</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -5827,13 +5791,13 @@
         <v>61453</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5812,13 @@
         <v>354833</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
@@ -5863,13 +5827,13 @@
         <v>316350</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
         <v>343</v>
@@ -5878,13 +5842,13 @@
         <v>671183</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5916,13 @@
         <v>64065</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
@@ -5967,13 +5931,13 @@
         <v>76626</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>411</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
@@ -5982,13 +5946,13 @@
         <v>140691</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +5967,13 @@
         <v>364331</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H8" s="7">
         <v>389</v>
@@ -6018,13 +5982,13 @@
         <v>421951</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>420</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M8" s="7">
         <v>641</v>
@@ -6033,13 +5997,13 @@
         <v>786282</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6071,13 @@
         <v>102694</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
@@ -6122,13 +6086,13 @@
         <v>131522</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>308</v>
@@ -6137,13 +6101,13 @@
         <v>234215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6122,13 @@
         <v>454558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
@@ -6173,13 +6137,13 @@
         <v>451954</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>1084</v>
@@ -6188,13 +6152,13 @@
         <v>906512</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6226,13 @@
         <v>178639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>451</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H13" s="7">
         <v>408</v>
@@ -6277,13 +6241,13 @@
         <v>259244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="M13" s="7">
         <v>585</v>
@@ -6292,13 +6256,13 @@
         <v>437883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6277,13 @@
         <v>545351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>461</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>733</v>
@@ -6328,28 +6292,28 @@
         <v>488017</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M14" s="7">
         <v>1221</v>
       </c>
       <c r="N14" s="7">
-        <v>1033368</v>
+        <v>1033369</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,7 +6355,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6417,13 +6381,13 @@
         <v>232547</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H16" s="7">
         <v>465</v>
@@ -6432,13 +6396,13 @@
         <v>272923</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="M16" s="7">
         <v>718</v>
@@ -6447,13 +6411,13 @@
         <v>505470</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6432,13 @@
         <v>365024</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H17" s="7">
         <v>537</v>
@@ -6483,13 +6447,13 @@
         <v>324140</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M17" s="7">
         <v>945</v>
@@ -6498,13 +6462,13 @@
         <v>689165</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6536,13 @@
         <v>296078</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H19" s="7">
         <v>1130</v>
@@ -6587,13 +6551,13 @@
         <v>708233</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="M19" s="7">
         <v>1580</v>
@@ -6602,13 +6566,13 @@
         <v>1004311</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +6587,13 @@
         <v>400916</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H20" s="7">
         <v>571</v>
@@ -6638,13 +6602,13 @@
         <v>313929</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="M20" s="7">
         <v>1148</v>
@@ -6653,13 +6617,13 @@
         <v>714846</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6691,13 @@
         <v>896869</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="H22" s="7">
         <v>2298</v>
@@ -6742,13 +6706,13 @@
         <v>1487154</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="M22" s="7">
         <v>3348</v>
@@ -6757,13 +6721,13 @@
         <v>2384023</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>511</v>
+        <v>447</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,43 +6742,43 @@
         <v>2485013</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="H23" s="7">
         <v>3059</v>
       </c>
       <c r="I23" s="7">
-        <v>2316343</v>
+        <v>2316342</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="M23" s="7">
         <v>5382</v>
       </c>
       <c r="N23" s="7">
-        <v>4801356</v>
+        <v>4801357</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>521</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,7 +6805,7 @@
         <v>5357</v>
       </c>
       <c r="I24" s="7">
-        <v>3803497</v>
+        <v>3803496</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -6856,7 +6820,7 @@
         <v>8730</v>
       </c>
       <c r="N24" s="7">
-        <v>7185379</v>
+        <v>7185380</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P11_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0124AECD-FD3D-4D4A-B212-B9E49981AFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DE89809-ABB9-4D38-8A12-731F4BAB528A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF3C70B8-F4BE-4694-A6C6-C28A980A4627}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C76F738C-7B31-411C-8AA9-7E2EC33CB9D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="577">
   <si>
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>5,82%</t>
@@ -191,7 +191,7 @@
     <t>92,04%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>10,64%</t>
@@ -248,7 +248,7 @@
     <t>86,17%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>18,34%</t>
@@ -305,7 +305,7 @@
     <t>78,39%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>30,81%</t>
@@ -362,61 +362,112 @@
     <t>68,38%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
   </si>
   <si>
     <t>18,18%</t>
@@ -743,52 +794,112 @@
     <t>66,59%</t>
   </si>
   <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
   </si>
   <si>
     <t>18,87%</t>
@@ -1100,58 +1211,94 @@
     <t>69,82%</t>
   </si>
   <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
   </si>
   <si>
     <t>18,56%</t>
@@ -1211,364 +1358,418 @@
     <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
   </si>
   <si>
     <t>42,48%</t>
   </si>
   <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
   </si>
   <si>
     <t>57,52%</t>
   </si>
   <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
   </si>
 </sst>
 </file>
@@ -1980,8 +2181,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4B19C5-C311-426D-91C7-A6C763D9268C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701F203D-3627-475F-AA65-1F330C004CEF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2873,10 +3074,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>251</v>
+        <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>238328</v>
+        <v>110481</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2888,10 +3089,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>401</v>
+        <v>203</v>
       </c>
       <c r="I19" s="7">
-        <v>414454</v>
+        <v>187084</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2903,10 +3104,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>652</v>
+        <v>321</v>
       </c>
       <c r="N19" s="7">
-        <v>652782</v>
+        <v>297565</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2924,10 +3125,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>272</v>
+        <v>185</v>
       </c>
       <c r="D20" s="7">
-        <v>264138</v>
+        <v>182102</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2939,10 +3140,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c r="I20" s="7">
-        <v>262388</v>
+        <v>155850</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2954,10 +3155,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>532</v>
+        <v>353</v>
       </c>
       <c r="N20" s="7">
-        <v>526526</v>
+        <v>337952</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2975,10 +3176,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2990,10 +3191,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3005,10 +3206,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3022,52 +3223,52 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>600</v>
+        <v>133</v>
       </c>
       <c r="D22" s="7">
-        <v>595684</v>
+        <v>127847</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="7">
+        <v>198</v>
+      </c>
+      <c r="I22" s="7">
+        <v>227370</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" s="7">
+        <v>331</v>
+      </c>
+      <c r="N22" s="7">
+        <v>355218</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="7">
-        <v>959</v>
-      </c>
-      <c r="I22" s="7">
-        <v>986706</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1559</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1582389</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>134</v>
@@ -3079,10 +3280,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2614</v>
+        <v>87</v>
       </c>
       <c r="D23" s="7">
-        <v>2680860</v>
+        <v>82036</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3094,10 +3295,10 @@
         <v>137</v>
       </c>
       <c r="H23" s="7">
-        <v>2338</v>
+        <v>92</v>
       </c>
       <c r="I23" s="7">
-        <v>2392492</v>
+        <v>106538</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>138</v>
@@ -3109,10 +3310,10 @@
         <v>140</v>
       </c>
       <c r="M23" s="7">
-        <v>4952</v>
+        <v>179</v>
       </c>
       <c r="N23" s="7">
-        <v>5073351</v>
+        <v>188573</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>141</v>
@@ -3121,7 +3322,7 @@
         <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,63 +3331,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>600</v>
+      </c>
+      <c r="D25" s="7">
+        <v>595684</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>959</v>
+      </c>
+      <c r="I25" s="7">
+        <v>986706</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1559</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1582390</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2614</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2680859</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2338</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2392491</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4952</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5073351</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3199,8 +3556,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184F5360-2450-4ACA-8A0E-3A9BDD1E568A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD37CCB-9172-48AD-B271-4BC3F2BFD2A0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3216,7 +3573,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3323,13 +3680,13 @@
         <v>25948</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -3338,13 +3695,13 @@
         <v>38542</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>64</v>
@@ -3353,13 +3710,13 @@
         <v>64490</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3731,13 @@
         <v>425391</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>383</v>
@@ -3389,13 +3746,13 @@
         <v>391688</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>800</v>
@@ -3404,13 +3761,13 @@
         <v>817079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3835,13 @@
         <v>57557</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>51</v>
@@ -3493,13 +3850,13 @@
         <v>54561</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -3511,10 +3868,10 @@
         <v>19</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3886,13 @@
         <v>624205</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>519</v>
@@ -3544,13 +3901,13 @@
         <v>554722</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>1129</v>
@@ -3562,10 +3919,10 @@
         <v>28</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3990,13 @@
         <v>84133</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
@@ -3648,13 +4005,13 @@
         <v>134069</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>208</v>
@@ -3663,13 +4020,13 @@
         <v>218202</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +4041,13 @@
         <v>594788</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>536</v>
@@ -3699,28 +4056,28 @@
         <v>573887</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>1104</v>
       </c>
       <c r="N11" s="7">
-        <v>1168676</v>
+        <v>1168675</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,7 +4119,7 @@
         <v>1312</v>
       </c>
       <c r="N12" s="7">
-        <v>1386878</v>
+        <v>1386877</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3788,13 +4145,13 @@
         <v>86319</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>147</v>
@@ -3803,13 +4160,13 @@
         <v>166553</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>224</v>
@@ -3818,13 +4175,13 @@
         <v>252872</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +4196,13 @@
         <v>527364</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>392</v>
@@ -3854,13 +4211,13 @@
         <v>449646</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>862</v>
@@ -3869,13 +4226,13 @@
         <v>977010</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +4300,13 @@
         <v>114030</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>185</v>
@@ -3958,13 +4315,13 @@
         <v>207162</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>291</v>
@@ -3973,13 +4330,13 @@
         <v>321192</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +4351,13 @@
         <v>313435</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>221</v>
@@ -4009,13 +4366,13 @@
         <v>240638</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>506</v>
@@ -4024,13 +4381,13 @@
         <v>554073</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,49 +4449,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="D19" s="7">
-        <v>275440</v>
+        <v>124563</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
-        <v>483</v>
+        <v>209</v>
       </c>
       <c r="I19" s="7">
-        <v>512779</v>
+        <v>210449</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
-        <v>728</v>
+        <v>320</v>
       </c>
       <c r="N19" s="7">
-        <v>788219</v>
+        <v>335013</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,49 +4500,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="D20" s="7">
-        <v>281078</v>
+        <v>184223</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="I20" s="7">
-        <v>230196</v>
+        <v>143547</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
-        <v>467</v>
+        <v>305</v>
       </c>
       <c r="N20" s="7">
-        <v>511274</v>
+        <v>327769</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,10 +4551,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>501</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7">
-        <v>556518</v>
+        <v>308786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4209,10 +4566,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4224,10 +4581,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1195</v>
+        <v>625</v>
       </c>
       <c r="N21" s="7">
-        <v>1299493</v>
+        <v>662782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4241,55 +4598,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>587</v>
+        <v>134</v>
       </c>
       <c r="D22" s="7">
-        <v>643427</v>
+        <v>150877</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
-        <v>1032</v>
+        <v>274</v>
       </c>
       <c r="I22" s="7">
-        <v>1113667</v>
+        <v>302329</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>1619</v>
+        <v>408</v>
       </c>
       <c r="N22" s="7">
-        <v>1757093</v>
+        <v>453206</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,49 +4655,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2606</v>
+        <v>86</v>
       </c>
       <c r="D23" s="7">
-        <v>2766261</v>
+        <v>96854</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
-        <v>2262</v>
+        <v>76</v>
       </c>
       <c r="I23" s="7">
-        <v>2440777</v>
+        <v>86650</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
-        <v>4868</v>
+        <v>162</v>
       </c>
       <c r="N23" s="7">
-        <v>5207038</v>
+        <v>183504</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,63 +4706,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>247731</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>570</v>
+      </c>
+      <c r="N24" s="7">
+        <v>636710</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>587</v>
+      </c>
+      <c r="D25" s="7">
+        <v>643427</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1032</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1113667</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1619</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1757093</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2606</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2766260</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2262</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2440777</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4868</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5207038</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3193</v>
       </c>
-      <c r="D24" s="7">
-        <v>3409688</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3409687</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3294</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3554444</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6487</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6964131</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4418,8 +4931,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594A47D8-3EC9-4FAE-92E3-B631A8E0D799}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A2FB98-13E5-49A5-9D99-03ED1DFDCF88}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4435,7 +4948,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4542,13 +5055,13 @@
         <v>17745</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -4557,13 +5070,13 @@
         <v>24457</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -4572,13 +5085,13 @@
         <v>42202</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +5106,13 @@
         <v>396960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="H5" s="7">
         <v>379</v>
@@ -4608,13 +5121,13 @@
         <v>371298</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>752</v>
@@ -4623,13 +5136,13 @@
         <v>768258</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +5210,13 @@
         <v>48651</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -4712,13 +5225,13 @@
         <v>60067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -4733,7 +5246,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +5261,13 @@
         <v>535823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -4763,13 +5276,13 @@
         <v>500675</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>1034</v>
@@ -4781,7 +5294,7 @@
         <v>25</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>49</v>
@@ -4852,13 +5365,13 @@
         <v>75872</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>95</v>
@@ -4867,13 +5380,13 @@
         <v>95687</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>166</v>
@@ -4882,13 +5395,13 @@
         <v>171559</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +5416,13 @@
         <v>588349</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="H11" s="7">
         <v>562</v>
@@ -4918,13 +5431,13 @@
         <v>558280</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>1124</v>
@@ -4933,13 +5446,13 @@
         <v>1146628</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5520,13 @@
         <v>120233</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -5022,13 +5535,13 @@
         <v>153215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>250</v>
@@ -5037,13 +5550,13 @@
         <v>273448</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5571,13 @@
         <v>521891</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>456</v>
@@ -5073,28 +5586,28 @@
         <v>492952</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>927</v>
       </c>
       <c r="N14" s="7">
-        <v>1014844</v>
+        <v>1014843</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,7 +5649,7 @@
         <v>1177</v>
       </c>
       <c r="N15" s="7">
-        <v>1288292</v>
+        <v>1288291</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5162,13 +5675,13 @@
         <v>116831</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>180</v>
@@ -5177,13 +5690,13 @@
         <v>204539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>283</v>
@@ -5192,13 +5705,13 @@
         <v>321370</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5726,13 @@
         <v>357789</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>250</v>
@@ -5228,13 +5741,13 @@
         <v>288930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>568</v>
@@ -5243,13 +5756,13 @@
         <v>646718</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,49 +5824,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="D19" s="7">
-        <v>245995</v>
+        <v>107104</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="I19" s="7">
-        <v>476809</v>
+        <v>203394</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
-        <v>665</v>
+        <v>296</v>
       </c>
       <c r="N19" s="7">
-        <v>722803</v>
+        <v>310498</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,49 +5875,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="D20" s="7">
-        <v>343491</v>
+        <v>226167</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="I20" s="7">
-        <v>295080</v>
+        <v>173333</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
-        <v>610</v>
+        <v>381</v>
       </c>
       <c r="N20" s="7">
-        <v>638572</v>
+        <v>399500</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,10 +5926,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>625</v>
+        <v>324</v>
       </c>
       <c r="D21" s="7">
-        <v>589486</v>
+        <v>333271</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5428,10 +5941,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>650</v>
+        <v>353</v>
       </c>
       <c r="I21" s="7">
-        <v>771889</v>
+        <v>376727</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5443,10 +5956,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1275</v>
+        <v>677</v>
       </c>
       <c r="N21" s="7">
-        <v>1361375</v>
+        <v>709998</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5460,55 +5973,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>606</v>
+        <v>161</v>
       </c>
       <c r="D22" s="7">
-        <v>625326</v>
+        <v>138891</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
-        <v>903</v>
+        <v>208</v>
       </c>
       <c r="I22" s="7">
-        <v>1014774</v>
+        <v>273414</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>98</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="M22" s="7">
-        <v>1509</v>
+        <v>369</v>
       </c>
       <c r="N22" s="7">
-        <v>1640099</v>
+        <v>412305</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,49 +6030,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2602</v>
+        <v>140</v>
       </c>
       <c r="D23" s="7">
-        <v>2744304</v>
+        <v>117324</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="H23" s="7">
-        <v>2413</v>
+        <v>89</v>
       </c>
       <c r="I23" s="7">
-        <v>2507215</v>
+        <v>121748</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>89</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="M23" s="7">
-        <v>5015</v>
+        <v>229</v>
       </c>
       <c r="N23" s="7">
-        <v>5251519</v>
+        <v>239072</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>239</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>292</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,63 +6081,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>301</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256215</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>297</v>
+      </c>
+      <c r="I24" s="7">
+        <v>395162</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>598</v>
+      </c>
+      <c r="N24" s="7">
+        <v>651377</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>606</v>
+      </c>
+      <c r="D25" s="7">
+        <v>625326</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H25" s="7">
+        <v>903</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1014774</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1509</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1640099</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2602</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2744304</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2413</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2507215</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5015</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5251519</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3208</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3369630</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3316</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3521989</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6524</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6891618</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5637,8 +6306,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028D6AF7-4F48-4637-AFE6-260404A6031C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEC8009-9DC4-4391-B13F-8D79711E66EF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5654,7 +6323,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5758,46 +6427,46 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>22846</v>
+        <v>26581</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>38607</v>
+        <v>34745</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
       </c>
       <c r="N4" s="7">
-        <v>61453</v>
+        <v>61327</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,46 +6478,46 @@
         <v>158</v>
       </c>
       <c r="D5" s="7">
-        <v>354833</v>
+        <v>373406</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
       </c>
       <c r="I5" s="7">
-        <v>316350</v>
+        <v>278455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="M5" s="7">
         <v>343</v>
       </c>
       <c r="N5" s="7">
-        <v>671183</v>
+        <v>651860</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,7 +6529,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5875,7 +6544,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5890,7 +6559,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5913,46 +6582,46 @@
         <v>50</v>
       </c>
       <c r="D7" s="7">
-        <v>64065</v>
+        <v>64925</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
       </c>
       <c r="I7" s="7">
-        <v>76626</v>
+        <v>72564</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
       </c>
       <c r="N7" s="7">
-        <v>140691</v>
+        <v>137489</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,46 +6633,46 @@
         <v>252</v>
       </c>
       <c r="D8" s="7">
-        <v>364331</v>
+        <v>358622</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>389</v>
       </c>
       <c r="I8" s="7">
-        <v>421951</v>
+        <v>438940</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="M8" s="7">
         <v>641</v>
       </c>
       <c r="N8" s="7">
-        <v>786282</v>
+        <v>797562</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,7 +6684,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6030,7 +6699,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6045,7 +6714,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6068,46 +6737,46 @@
         <v>106</v>
       </c>
       <c r="D10" s="7">
-        <v>102694</v>
+        <v>100646</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
       </c>
       <c r="I10" s="7">
-        <v>131522</v>
+        <v>124860</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="M10" s="7">
         <v>308</v>
       </c>
       <c r="N10" s="7">
-        <v>234215</v>
+        <v>225506</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,46 +6788,46 @@
         <v>440</v>
       </c>
       <c r="D11" s="7">
-        <v>454558</v>
+        <v>435692</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
       </c>
       <c r="I11" s="7">
-        <v>451954</v>
+        <v>417608</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="M11" s="7">
         <v>1084</v>
       </c>
       <c r="N11" s="7">
-        <v>906512</v>
+        <v>853300</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,7 +6839,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6185,7 +6854,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6200,7 +6869,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6223,46 +6892,46 @@
         <v>177</v>
       </c>
       <c r="D13" s="7">
-        <v>178639</v>
+        <v>171340</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>490</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>445</v>
+        <v>491</v>
       </c>
       <c r="H13" s="7">
         <v>408</v>
       </c>
       <c r="I13" s="7">
-        <v>259244</v>
+        <v>241446</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>447</v>
+        <v>493</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
       <c r="M13" s="7">
         <v>585</v>
       </c>
       <c r="N13" s="7">
-        <v>437883</v>
+        <v>412786</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>449</v>
+        <v>495</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>450</v>
+        <v>496</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>451</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,46 +6943,46 @@
         <v>488</v>
       </c>
       <c r="D14" s="7">
-        <v>545351</v>
+        <v>716446</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>452</v>
+        <v>498</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>500</v>
       </c>
       <c r="H14" s="7">
         <v>733</v>
       </c>
       <c r="I14" s="7">
-        <v>488017</v>
+        <v>471435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>501</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="M14" s="7">
         <v>1221</v>
       </c>
       <c r="N14" s="7">
-        <v>1033369</v>
+        <v>1187881</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>459</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,7 +6994,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6340,7 +7009,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6355,7 +7024,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6378,46 +7047,46 @@
         <v>253</v>
       </c>
       <c r="D16" s="7">
-        <v>232547</v>
+        <v>219732</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>508</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>509</v>
       </c>
       <c r="H16" s="7">
         <v>465</v>
       </c>
       <c r="I16" s="7">
-        <v>272923</v>
+        <v>251831</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>463</v>
+        <v>510</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>511</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>512</v>
       </c>
       <c r="M16" s="7">
         <v>718</v>
       </c>
       <c r="N16" s="7">
-        <v>505470</v>
+        <v>471563</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>466</v>
+        <v>513</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,46 +7098,46 @@
         <v>408</v>
       </c>
       <c r="D17" s="7">
-        <v>365024</v>
+        <v>339170</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>516</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>470</v>
+        <v>517</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>471</v>
+        <v>518</v>
       </c>
       <c r="H17" s="7">
         <v>537</v>
       </c>
       <c r="I17" s="7">
-        <v>324140</v>
+        <v>296074</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>472</v>
+        <v>519</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>520</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>521</v>
       </c>
       <c r="M17" s="7">
         <v>945</v>
       </c>
       <c r="N17" s="7">
-        <v>689165</v>
+        <v>635244</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>522</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>523</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,7 +7149,7 @@
         <v>661</v>
       </c>
       <c r="D18" s="7">
-        <v>597571</v>
+        <v>558902</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6495,7 +7164,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6510,7 +7179,7 @@
         <v>1663</v>
       </c>
       <c r="N18" s="7">
-        <v>1194635</v>
+        <v>1106807</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6530,49 +7199,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="D19" s="7">
-        <v>296078</v>
+        <v>131479</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>525</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>479</v>
+        <v>526</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
       <c r="H19" s="7">
-        <v>1130</v>
+        <v>438</v>
       </c>
       <c r="I19" s="7">
-        <v>708233</v>
+        <v>412730</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
       <c r="M19" s="7">
-        <v>1580</v>
+        <v>648</v>
       </c>
       <c r="N19" s="7">
-        <v>1004311</v>
+        <v>544209</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,49 +7250,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>577</v>
+        <v>360</v>
       </c>
       <c r="D20" s="7">
-        <v>400916</v>
+        <v>236686</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>535</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>536</v>
       </c>
       <c r="H20" s="7">
-        <v>571</v>
+        <v>387</v>
       </c>
       <c r="I20" s="7">
-        <v>313929</v>
+        <v>194479</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>537</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>538</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="M20" s="7">
-        <v>1148</v>
+        <v>747</v>
       </c>
       <c r="N20" s="7">
-        <v>714846</v>
+        <v>431165</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>540</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>541</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,10 +7301,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>696994</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6647,10 +7316,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1701</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1022162</v>
+        <v>607209</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6662,10 +7331,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2728</v>
+        <v>1395</v>
       </c>
       <c r="N21" s="7">
-        <v>1719157</v>
+        <v>975374</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6679,55 +7348,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1050</v>
+        <v>240</v>
       </c>
       <c r="D22" s="7">
-        <v>896869</v>
+        <v>145101</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>543</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>544</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>498</v>
+        <v>545</v>
       </c>
       <c r="H22" s="7">
-        <v>2298</v>
+        <v>692</v>
       </c>
       <c r="I22" s="7">
-        <v>1487154</v>
+        <v>332555</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>479</v>
+        <v>546</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>499</v>
+        <v>547</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
       <c r="M22" s="7">
-        <v>3348</v>
+        <v>932</v>
       </c>
       <c r="N22" s="7">
-        <v>2384023</v>
+        <v>477656</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>501</v>
+        <v>549</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>447</v>
+        <v>550</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,49 +7405,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2323</v>
+        <v>217</v>
       </c>
       <c r="D23" s="7">
-        <v>2485013</v>
+        <v>136927</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>504</v>
+        <v>553</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="H23" s="7">
-        <v>3059</v>
+        <v>184</v>
       </c>
       <c r="I23" s="7">
-        <v>2316342</v>
+        <v>90537</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>489</v>
+        <v>555</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>506</v>
+        <v>556</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>507</v>
+        <v>557</v>
       </c>
       <c r="M23" s="7">
-        <v>5382</v>
+        <v>401</v>
       </c>
       <c r="N23" s="7">
-        <v>4801357</v>
+        <v>227464</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>508</v>
+        <v>558</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>509</v>
+        <v>559</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>456</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,63 +7456,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282028</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>876</v>
+      </c>
+      <c r="I24" s="7">
+        <v>423092</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1333</v>
+      </c>
+      <c r="N24" s="7">
+        <v>705120</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1050</v>
+      </c>
+      <c r="D25" s="7">
+        <v>859805</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2298</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1470732</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3348</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2330537</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2323</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2596949</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3059</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2187527</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5382</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4784476</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3373</v>
       </c>
-      <c r="D24" s="7">
-        <v>3381882</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3456754</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5357</v>
       </c>
-      <c r="I24" s="7">
-        <v>3803496</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3658259</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8730</v>
       </c>
-      <c r="N24" s="7">
-        <v>7185380</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7115013</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
